--- a/src/assets/data/9_Financiera/Formatos/GF-FOR-026 Solicitud Elemento de Almacen.xlsx
+++ b/src/assets/data/9_Financiera/Formatos/GF-FOR-026 Solicitud Elemento de Almacen.xlsx
@@ -1140,7 +1140,7 @@
     <xdr:ext cx="504825" cy="561975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1168,7 +1168,7 @@
     <xdr:ext cx="847725" cy="504825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1192,7 +1192,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B4" s="24">
         <f>TODAY()</f>
-        <v>43649</v>
+        <v>43656</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1516,7 +1516,7 @@
       <c r="I20" s="57"/>
       <c r="J20" s="58"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
       <c r="C21" s="59"/>
@@ -1528,7 +1528,7 @@
       <c r="I21" s="61"/>
       <c r="J21" s="60"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" ht="14.25" hidden="1" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="62"/>
       <c r="C22" s="9"/>
@@ -1536,7 +1536,7 @@
       <c r="G22" s="9"/>
       <c r="J22" s="62"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" ht="14.25" hidden="1" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="62"/>
       <c r="C23" s="9"/>
@@ -1544,7 +1544,7 @@
       <c r="G23" s="9"/>
       <c r="J23" s="62"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" ht="14.25" hidden="1" customHeight="1">
       <c r="A24" s="63" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="I24" s="36"/>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" ht="14.25" hidden="1" customHeight="1">
       <c r="A25" s="65" t="s">
         <v>21</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="I25" s="36"/>
       <c r="J25" s="37"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" ht="14.25" hidden="1" customHeight="1">
       <c r="A26" s="67" t="s">
         <v>24</v>
       </c>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" ht="19.5" customHeight="1">
+    <row r="27" ht="19.5" hidden="1" customHeight="1">
       <c r="A27" s="74" t="s">
         <v>30</v>
       </c>
@@ -2603,27 +2603,43 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:F23"/>
-    <mergeCell ref="G21:J23"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
@@ -2631,40 +2647,24 @@
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="H25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="D25:G25"/>
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:F23"/>
+    <mergeCell ref="G21:J23"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B5">
@@ -2673,7 +2673,7 @@
   </dataValidations>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="portrait"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
